--- a/Escala.xlsx
+++ b/Escala.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>nome</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Acomp. Pastoral</t>
+  </si>
+  <si>
+    <t>Caio</t>
+  </si>
+  <si>
+    <t>5519933005910</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -507,9 +516,18 @@
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45340.0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="1"/>

--- a/Escala.xlsx
+++ b/Escala.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>nome</t>
   </si>
@@ -52,22 +52,37 @@
     <t>Marco Aurelio</t>
   </si>
   <si>
+    <t>5519999266472</t>
+  </si>
+  <si>
     <t>Renato</t>
   </si>
   <si>
+    <t>5519971218770</t>
+  </si>
+  <si>
     <t>Auxiliar ao Púlpito</t>
   </si>
   <si>
     <t>Raumi</t>
   </si>
   <si>
+    <t>5519981033284</t>
+  </si>
+  <si>
     <t>Oferta</t>
   </si>
   <si>
     <t>Agenor</t>
   </si>
   <si>
+    <t>5519999414731</t>
+  </si>
+  <si>
     <t>Severino</t>
+  </si>
+  <si>
+    <t>5519997603423</t>
   </si>
   <si>
     <t>Acomp. Pastoral</t>
@@ -111,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -124,6 +139,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -411,8 +429,8 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>45340.0</v>
@@ -423,73 +441,73 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="4">
         <v>45340.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>45340.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>45340.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>45340.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">

--- a/Escala.xlsx
+++ b/Escala.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>nome</t>
   </si>
@@ -31,7 +31,7 @@
     <t>5519982219744</t>
   </si>
   <si>
-    <t>Externo</t>
+    <t>Recepção</t>
   </si>
   <si>
     <t>Cleone</t>
@@ -40,13 +40,7 @@
     <t>5519982463064</t>
   </si>
   <si>
-    <t>Advone</t>
-  </si>
-  <si>
-    <t>5519988587779</t>
-  </si>
-  <si>
-    <t>Recepção</t>
+    <t>Oferta</t>
   </si>
   <si>
     <t>Marco Aurelio</t>
@@ -55,13 +49,7 @@
     <t>5519999266472</t>
   </si>
   <si>
-    <t>Renato</t>
-  </si>
-  <si>
-    <t>5519971218770</t>
-  </si>
-  <si>
-    <t>Auxiliar ao Púlpito</t>
+    <t>Externo e Oferta</t>
   </si>
   <si>
     <t>Raumi</t>
@@ -70,19 +58,13 @@
     <t>5519981033284</t>
   </si>
   <si>
-    <t>Oferta</t>
+    <t>Externo</t>
   </si>
   <si>
-    <t>Agenor</t>
+    <t>William</t>
   </si>
   <si>
-    <t>5519999414731</t>
-  </si>
-  <si>
-    <t>Severino</t>
-  </si>
-  <si>
-    <t>5519997603423</t>
+    <t>5519974237829</t>
   </si>
   <si>
     <t>Acomp. Pastoral</t>
@@ -95,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -111,13 +93,23 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -138,13 +130,25 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,9 +395,9 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>45340.0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>45343.0</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -404,111 +408,78 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
-        <v>45340.0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
+      <c r="C3" s="6">
+        <v>45343.0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
-        <v>45340.0</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45343.0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4">
-        <v>45340.0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45343.0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4">
-        <v>45340.0</v>
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45343.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4">
-        <v>45340.0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45340.0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45340.0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="B13" s="1"/>
@@ -1125,15 +1096,9 @@
     <row r="217" ht="12.75" customHeight="1">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
-      <c r="B218" s="1"/>
-    </row>
-    <row r="219" ht="12.75" customHeight="1">
-      <c r="B219" s="1"/>
-    </row>
-    <row r="220" ht="12.75" customHeight="1">
-      <c r="B220" s="1"/>
-    </row>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -1911,9 +1876,6 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
